--- a/biology/Histoire de la zoologie et de la botanique/Johann_Ernst_Immanuel_Walch/Johann_Ernst_Immanuel_Walch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Ernst_Immanuel_Walch/Johann_Ernst_Immanuel_Walch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Ernst Immanuel Walch est un théologien et un naturaliste allemand, né en 1725 et mort en 1778.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du théologien Johann Georg Walch (1693-1775). Il étudie les langues sémitiques à Iéna ainsi que les sciences naturelles et les mathématiques. En 1749, il fait paraître Einleitung in die Harmonie der Evangelien et l’année suivante devient professeur appointé extraordinaire de théologie. Cinq ans plus tard, il devient professeur ordinaire de logique et de métaphysique. En 1759, il échange sa chaire contre une autre de rhétorique et de poésie.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Einleitung in die Harmonie der Evangelien
 Diatribe de ortu et progressu artis criticae apud veteres romanos (1747)
@@ -578,9 +594,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre fossile de conifères Walchia lui a été dédié par Kaspar Maria von Sternberg en 1825[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre fossile de conifères Walchia lui a été dédié par Kaspar Maria von Sternberg en 1825.
 </t>
         </is>
       </c>
